--- a/employees.xlsx
+++ b/employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strelok/Lohnbuch/employee_site_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strelok/lohn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77A5F3-306D-7943-A79E-AD574F14243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB91D6-01E3-2C47-9CA4-45282E22E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>andrii</t>
+  </si>
+  <si>
+    <t>michael</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,6 +513,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="C6">
+        <v>2488</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strelok/lohn/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB91D6-01E3-2C47-9CA4-45282E22E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -62,19 +56,13 @@
   </si>
   <si>
     <t>user</t>
-  </si>
-  <si>
-    <t>andrii</t>
-  </si>
-  <si>
-    <t>michael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,25 +121,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -223,7 +203,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,10 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,16 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,7 +447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -485,7 +461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -497,34 +473,6 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>2548</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1234</v>
-      </c>
-      <c r="C6">
-        <v>2488</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strelok/lohn/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56C2CB-1C59-804A-8DBA-D46D71DB9AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15680" yWindow="9940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -56,13 +62,19 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>andrii</t>
+  </si>
+  <si>
+    <t>michael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,17 +133,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,14 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -447,7 +471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -461,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -473,6 +497,34 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2488</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
